--- a/suppxls/Scen_demo_year2dimension.xlsx
+++ b/suppxls/Scen_demo_year2dimension.xlsx
@@ -1,29 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\Model_Demo_Adv_Veda\suppxls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Model_Demo_Adv_Veda\suppxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C828258F-866B-48E4-A73B-03EE213AC457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="UPD" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet9" sheetId="9" r:id="rId2"/>
+    <sheet name="UPD" sheetId="2" r:id="rId3"/>
+    <sheet name="Base_Elc" sheetId="10" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -43,7 +41,6 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -56,7 +53,6 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -69,7 +65,6 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -82,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="54">
   <si>
     <t>Pset_CI</t>
   </si>
@@ -132,9 +127,6 @@
     <t>Cset_CN2</t>
   </si>
   <si>
-    <t>~TFM_Fill-R</t>
-  </si>
-  <si>
     <t>attribute</t>
   </si>
   <si>
@@ -151,19 +143,121 @@
   </si>
   <si>
     <t>updating Cum bound</t>
+  </si>
+  <si>
+    <t>~TFM_Fill-R:w=Base_Elc</t>
+  </si>
+  <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>lim_type</t>
+  </si>
+  <si>
+    <t>time_slice</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>commodity_group</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>sow</t>
+  </si>
+  <si>
+    <t>valfield</t>
+  </si>
+  <si>
+    <t>year2</t>
+  </si>
+  <si>
+    <t>BASE</t>
+  </si>
+  <si>
+    <t>REG1</t>
+  </si>
+  <si>
+    <t>MINCOA1</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>FX</t>
+  </si>
+  <si>
+    <t>BOH</t>
+  </si>
+  <si>
+    <t>2030</t>
+  </si>
+  <si>
+    <t>EOH</t>
+  </si>
+  <si>
+    <t>MINCOA2</t>
+  </si>
+  <si>
+    <t>MINCOA3</t>
+  </si>
+  <si>
+    <t>MINGAS1</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>MINGAS2</t>
+  </si>
+  <si>
+    <t>MINGAS3</t>
+  </si>
+  <si>
+    <t>MINOIL1</t>
+  </si>
+  <si>
+    <t>MINOIL2</t>
+  </si>
+  <si>
+    <t>MINOIL3</t>
+  </si>
+  <si>
+    <t>REG2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -192,13 +286,11 @@
     <font>
       <b/>
       <sz val="8"/>
-      <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
-      <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -235,39 +327,138 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+  <cellStyleXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normale_Scen_UC_IND-StrucConst" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Percent" xfId="15" builtinId="5"/>
+    <cellStyle name="Currency" xfId="16" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
+    <cellStyle name="Comma" xfId="18" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
+    <cellStyle name="Normal 10" xfId="20"/>
+    <cellStyle name="Normale_Scen_UC_IND-StrucConst" xfId="21"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -280,9 +471,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -320,9 +511,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -355,9 +546,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -390,9 +598,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -565,29 +790,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.73046875" customWidth="1"/>
-    <col min="6" max="6" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.73046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.73046875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1428571428571" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85714285714286" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.71428571428571" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.71428571428571" customWidth="1"/>
+    <col min="6" max="6" width="10.7142857142857" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.71428571428571" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.42857142857143" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.57142857142857" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.71428571428571" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42857142857143" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.42857142857143" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:14" ht="15">
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
@@ -600,7 +825,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:14" ht="15.75" thickBot="1">
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
@@ -641,39 +866,39 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="4:17" ht="15">
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
       </c>
       <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" t="s">
+    </row>
+    <row r="7" spans="2:2" ht="15">
+      <c r="B7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
+    <row r="8" spans="2:3" ht="15">
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
       <c r="C8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="15">
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -681,18 +906,1121 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{639B2856-BBF6-4332-9DCC-79300E981417}">
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2">
+        <v>40000</v>
+      </c>
+      <c r="N2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3">
+        <v>80000</v>
+      </c>
+      <c r="N3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4">
+        <v>80000</v>
+      </c>
+      <c r="N4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5">
+        <v>160000</v>
+      </c>
+      <c r="N5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6">
+        <v>1500000</v>
+      </c>
+      <c r="N6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7">
+        <v>3000000</v>
+      </c>
+      <c r="N7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8">
+        <v>15000</v>
+      </c>
+      <c r="N8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9">
+        <v>20000</v>
+      </c>
+      <c r="N9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11">
+        <v>7200</v>
+      </c>
+      <c r="N11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12">
+        <v>1800</v>
+      </c>
+      <c r="N12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13">
+        <v>1200000</v>
+      </c>
+      <c r="N13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14">
+        <v>40000</v>
+      </c>
+      <c r="N14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15">
+        <v>80000</v>
+      </c>
+      <c r="N15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16">
+        <v>80000</v>
+      </c>
+      <c r="N16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17">
+        <v>160000</v>
+      </c>
+      <c r="N17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20">
+        <v>15000</v>
+      </c>
+      <c r="N20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" t="s">
+        <v>39</v>
+      </c>
+      <c r="M21">
+        <v>20000</v>
+      </c>
+      <c r="N21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" t="s">
+        <v>39</v>
+      </c>
+      <c r="M22">
+        <v>3000000</v>
+      </c>
+      <c r="N22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" t="s">
+        <v>39</v>
+      </c>
+      <c r="M23">
+        <v>12000</v>
+      </c>
+      <c r="N23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" t="s">
+        <v>39</v>
+      </c>
+      <c r="K24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L24" t="s">
+        <v>39</v>
+      </c>
+      <c r="M24">
+        <v>10000</v>
+      </c>
+      <c r="N24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" t="s">
+        <v>39</v>
+      </c>
+      <c r="K25" t="s">
+        <v>39</v>
+      </c>
+      <c r="L25" t="s">
+        <v>39</v>
+      </c>
+      <c r="M25">
+        <v>1200000</v>
+      </c>
+      <c r="N25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>